--- a/config_6.8/game_enter_btn_config.xlsx
+++ b/config_6.8/game_enter_btn_config.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="374">
   <si>
     <t>id|行号</t>
   </si>
@@ -212,7 +212,7 @@
     <t>|内容</t>
   </si>
   <si>
-    <t>3;116#2#139#8#122#61#140#137#9#117#134#141#138#</t>
+    <t>3;116#2#139#8#122#61#140#137#9#117#134#141#138#142#</t>
   </si>
   <si>
     <t>left</t>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>124#</t>
+  </si>
+  <si>
+    <t>限时红包</t>
   </si>
   <si>
     <t>26#18#</t>
@@ -1323,15 +1326,18 @@
   <si>
     <t>超级夺宝</t>
   </si>
+  <si>
+    <t>"act_042_xshb",</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -1389,9 +1395,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1404,23 +1433,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1435,37 +1465,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1497,14 +1511,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1572,19 +1578,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1596,13 +1602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1614,13 +1620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1632,7 +1632,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,13 +1656,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1668,79 +1746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1802,26 +1808,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1841,6 +1834,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1855,17 +1872,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1874,10 +1880,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1886,139 +1892,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2065,6 +2071,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2432,12 +2441,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2452,57 +2461,57 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2540,25 +2549,25 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>54</v>
+      <c r="C2" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2589,14 +2598,14 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>55</v>
+      <c r="C2" s="20" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2616,12 +2625,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2636,25 +2645,25 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>56</v>
+      <c r="C2" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>57</v>
+      <c r="C3" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2690,18 +2699,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>57</v>
+      <c r="C2" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2732,25 +2741,25 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>56</v>
+      <c r="C2" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>57</v>
+      <c r="C3" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2770,12 +2779,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2790,14 +2799,14 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>58</v>
+      <c r="C2" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2818,12 +2827,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2838,14 +2847,14 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
+      <c r="C2" s="20" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2881,14 +2890,14 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>60</v>
+      <c r="C2" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2924,96 +2933,96 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>62</v>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="17">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="17">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="22">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3049,18 +3058,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>75</v>
+      <c r="C2" s="20" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3068,7 +3077,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -3081,7 +3090,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3089,10 +3098,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3100,10 +3109,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3111,10 +3120,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3122,10 +3131,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -3133,7 +3142,7 @@
       <c r="C9" s="5"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="16.5" spans="2:3">
-      <c r="B10" s="21"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="3:3">
@@ -3157,12 +3166,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -3177,61 +3186,61 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" ht="15"/>
     <row r="18" ht="15.75" spans="10:10">
-      <c r="J18" s="27"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" ht="15"/>
   </sheetData>
@@ -3264,14 +3273,14 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>86</v>
+      <c r="C2" s="20" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3303,13 +3312,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3342,13 +3351,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3382,13 +3391,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3424,29 +3433,29 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="20">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -3492,7 +3501,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3531,10 +3540,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -3576,10 +3585,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -3594,14 +3603,14 @@
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C150" sqref="C150"/>
+      <selection pane="bottomRight" activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -3617,22 +3626,22 @@
   <sheetData>
     <row r="1" ht="34.5" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3640,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -3650,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3658,7 +3667,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -3668,7 +3677,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3676,19 +3685,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3696,7 +3705,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -3706,7 +3715,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3714,7 +3723,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -3724,7 +3733,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3732,7 +3741,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -3742,7 +3751,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3750,7 +3759,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -3760,7 +3769,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3768,7 +3777,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -3778,7 +3787,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3786,7 +3795,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3796,7 +3805,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3804,7 +3813,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -3814,7 +3823,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3822,7 +3831,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -3832,7 +3841,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3840,7 +3849,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -3850,7 +3859,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3858,7 +3867,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -3868,7 +3877,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3876,7 +3885,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -3886,7 +3895,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3894,7 +3903,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -3904,7 +3913,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3912,7 +3921,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3922,7 +3931,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3930,7 +3939,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -3940,7 +3949,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3948,7 +3957,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -3958,7 +3967,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3966,7 +3975,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -3976,7 +3985,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3984,7 +3993,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -3994,7 +4003,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4002,7 +4011,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -4012,7 +4021,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4020,7 +4029,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -4030,7 +4039,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4038,7 +4047,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -4048,7 +4057,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4056,7 +4065,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -4066,7 +4075,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4074,7 +4083,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -4084,7 +4093,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4092,7 +4101,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -4102,7 +4111,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4110,7 +4119,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -4120,7 +4129,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4128,7 +4137,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -4138,7 +4147,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4146,7 +4155,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -4156,7 +4165,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4164,7 +4173,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -4174,7 +4183,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4182,7 +4191,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -4192,7 +4201,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4200,7 +4209,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -4210,7 +4219,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4218,7 +4227,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -4228,7 +4237,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4236,7 +4245,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -4246,7 +4255,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4254,7 +4263,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -4264,7 +4273,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4272,7 +4281,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -4282,7 +4291,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4290,7 +4299,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -4300,7 +4309,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4308,7 +4317,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -4318,7 +4327,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4326,7 +4335,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -4336,7 +4345,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4344,7 +4353,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -4354,7 +4363,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4362,7 +4371,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4371,7 +4380,7 @@
         <v>41</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4379,7 +4388,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4388,7 +4397,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4396,7 +4405,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4405,7 +4414,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4413,7 +4422,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4422,7 +4431,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4430,7 +4439,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4439,7 +4448,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4447,7 +4456,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4456,7 +4465,7 @@
         <v>46</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4464,7 +4473,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4473,7 +4482,7 @@
         <v>47</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4481,7 +4490,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4490,7 +4499,7 @@
         <v>48</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4498,7 +4507,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4507,7 +4516,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4515,7 +4524,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4524,7 +4533,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4532,7 +4541,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4541,7 +4550,7 @@
         <v>51</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4549,7 +4558,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4558,7 +4567,7 @@
         <v>52</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4566,7 +4575,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -4576,7 +4585,7 @@
         <v>53</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4584,7 +4593,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4593,7 +4602,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4601,7 +4610,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4610,7 +4619,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4618,7 +4627,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4627,7 +4636,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4635,7 +4644,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4644,7 +4653,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4652,7 +4661,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4661,7 +4670,7 @@
         <v>58</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4669,7 +4678,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4678,7 +4687,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4686,7 +4695,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4695,7 +4704,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4703,7 +4712,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4712,7 +4721,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4720,7 +4729,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4729,7 +4738,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4737,7 +4746,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4746,7 +4755,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4754,7 +4763,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4763,7 +4772,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4771,7 +4780,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4780,7 +4789,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4788,7 +4797,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4797,7 +4806,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4805,7 +4814,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4814,7 +4823,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4822,7 +4831,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4831,7 +4840,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4839,7 +4848,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4848,7 +4857,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4856,7 +4865,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4865,7 +4874,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4873,7 +4882,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4882,7 +4891,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4890,7 +4899,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4899,7 +4908,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4907,7 +4916,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4916,7 +4925,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4924,7 +4933,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4933,7 +4942,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4941,7 +4950,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4950,7 +4959,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4958,7 +4967,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4967,7 +4976,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4975,7 +4984,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4984,7 +4993,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4992,7 +5001,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -5001,7 +5010,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5009,7 +5018,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -5018,7 +5027,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5026,7 +5035,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -5035,7 +5044,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5043,7 +5052,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -5052,7 +5061,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5060,7 +5069,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5069,7 +5078,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5077,7 +5086,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -5086,7 +5095,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5094,7 +5103,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -5103,7 +5112,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5111,7 +5120,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5120,7 +5129,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5128,7 +5137,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -5137,7 +5146,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5145,19 +5154,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5165,7 +5174,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -5174,7 +5183,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5182,7 +5191,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5191,7 +5200,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5199,7 +5208,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -5208,7 +5217,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5216,7 +5225,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -5225,7 +5234,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5233,7 +5242,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -5242,7 +5251,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5250,7 +5259,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -5259,7 +5268,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5267,7 +5276,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -5276,7 +5285,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5284,7 +5293,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -5293,7 +5302,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5301,7 +5310,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -5310,7 +5319,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5318,7 +5327,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5328,7 +5337,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5336,7 +5345,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -5345,7 +5354,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5353,7 +5362,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5362,7 +5371,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5370,7 +5379,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5379,7 +5388,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5387,19 +5396,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="1" spans="1:6">
@@ -5407,7 +5416,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -5416,7 +5425,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5424,7 +5433,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5433,7 +5442,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" s="2" customFormat="1" spans="1:6">
@@ -5441,7 +5450,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -5450,7 +5459,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5458,19 +5467,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5478,7 +5487,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5487,7 +5496,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5495,7 +5504,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5504,7 +5513,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="109" ht="16.5" spans="1:6">
@@ -5512,7 +5521,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5521,7 +5530,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5529,7 +5538,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5538,7 +5547,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -5546,7 +5555,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5555,7 +5564,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5563,7 +5572,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5572,7 +5581,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5580,7 +5589,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5589,7 +5598,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5597,7 +5606,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5606,7 +5615,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5614,7 +5623,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5623,7 +5632,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -5631,19 +5640,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -5651,19 +5660,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118" ht="16.5" spans="1:6">
@@ -5671,7 +5680,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5680,7 +5689,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -5688,7 +5697,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5697,7 +5706,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -5705,7 +5714,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5714,7 +5723,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -5722,7 +5731,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5731,7 +5740,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -5739,7 +5748,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5748,7 +5757,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -5756,7 +5765,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5765,7 +5774,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -5773,7 +5782,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5782,7 +5791,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -5790,7 +5799,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5799,7 +5808,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -5807,7 +5816,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5816,7 +5825,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -5824,7 +5833,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5833,7 +5842,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -5841,7 +5850,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5850,7 +5859,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5858,19 +5867,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5878,19 +5887,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -5898,19 +5907,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C131" s="5">
         <v>1</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E131" s="5">
         <v>130</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5918,19 +5927,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C132" s="5">
         <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E132" s="5">
         <v>131</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -5938,7 +5947,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -5947,7 +5956,7 @@
         <v>132</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -5955,7 +5964,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -5964,7 +5973,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="135" ht="16.5" spans="1:6">
@@ -5972,19 +5981,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -5992,19 +6001,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6012,19 +6021,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="138" ht="15.75" spans="1:6">
@@ -6032,19 +6041,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="139" ht="15.75" spans="1:6">
@@ -6052,19 +6061,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6072,7 +6081,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -6082,7 +6091,7 @@
         <v>139</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="141" ht="15.75" spans="1:6">
@@ -6090,19 +6099,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E141">
         <v>140</v>
       </c>
       <c r="F141" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="142" ht="15.75" spans="1:6">
@@ -6110,19 +6119,36 @@
         <v>141</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E142">
         <v>141</v>
       </c>
       <c r="F142" t="s">
-        <v>371</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" spans="1:6">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>142</v>
+      </c>
+      <c r="F143" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -6159,53 +6185,53 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="22">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6226,12 +6252,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6246,55 +6272,55 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6321,7 +6347,7 @@
     <col min="3" max="3" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" s="24" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6360,12 +6386,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6380,13 +6406,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6420,12 +6446,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6440,44 +6466,44 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6491,20 +6517,20 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J142"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="54.875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="54.875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:5">
@@ -6525,13 +6551,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="5">
@@ -6544,13 +6570,13 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="5">
@@ -6567,13 +6593,13 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="5">
@@ -6586,13 +6612,13 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="5">
@@ -6606,13 +6632,13 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="5">
@@ -6625,13 +6651,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="17">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="5">
@@ -6644,13 +6670,13 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="17">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="5">
@@ -6663,13 +6689,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="17">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="5">
@@ -6682,7 +6708,7 @@
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="18"/>
+      <c r="B10" s="19"/>
       <c r="D10" s="5">
         <f>'all_enter|所有按钮入口'!E10</f>
         <v>9</v>
@@ -6693,8 +6719,8 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="5">
         <f>'all_enter|所有按钮入口'!E11</f>
         <v>10</v>
@@ -8012,6 +8038,14 @@
       <c r="E142" s="5" t="str">
         <f>'all_enter|所有按钮入口'!F142</f>
         <v>超级夺宝</v>
+      </c>
+    </row>
+    <row r="143" spans="4:5">
+      <c r="D143" s="5">
+        <v>142</v>
+      </c>
+      <c r="E143" s="24" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -8033,12 +8067,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -8053,14 +8087,14 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>53</v>
+      <c r="C2" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
